--- a/src/북한-집계-통합.xlsx
+++ b/src/북한-집계-통합.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H582"/>
+  <dimension ref="A1:H581"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16715,34 +16715,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582">
-      <c r="A582" t="inlineStr">
-        <is>
-          <t>20240406</t>
-        </is>
-      </c>
-      <c r="B582" t="n">
-        <v>0</v>
-      </c>
-      <c r="C582" t="n">
-        <v>0</v>
-      </c>
-      <c r="D582" t="n">
-        <v>1</v>
-      </c>
-      <c r="E582" t="n">
-        <v>1</v>
-      </c>
-      <c r="F582" t="n">
-        <v>0</v>
-      </c>
-      <c r="G582" t="n">
-        <v>0</v>
-      </c>
-      <c r="H582" t="n">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
